--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F223C-F0BF-45CA-8797-152B353575CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A8C8F2-0D40-42CA-B699-7E89881A55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{682A4A4C-CED8-4332-820B-8D70A758E6DF}"/>
   </bookViews>
@@ -33,6 +33,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>external_ID</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>sensor_type</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author_affiliation</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +429,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BDE976-8A87-43CF-A983-F371A8BBADE6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A8C8F2-0D40-42CA-B699-7E89881A55E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA768A-4C51-42DE-8782-5C8EC3FD6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{682A4A4C-CED8-4332-820B-8D70A758E6DF}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>external_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="76">
   <si>
     <t>variable</t>
   </si>
@@ -53,15 +50,9 @@
     <t>depth</t>
   </si>
   <si>
-    <t>sensor_type</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
-    <t>author_affiliation</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -78,13 +69,271 @@
   </si>
   <si>
     <t>station</t>
+  </si>
+  <si>
+    <t>Butschenberg</t>
+  </si>
+  <si>
+    <t>Grundigklinik</t>
+  </si>
+  <si>
+    <t>Hundseck</t>
+  </si>
+  <si>
+    <t>Schafhof</t>
+  </si>
+  <si>
+    <t>Schönbrunn</t>
+  </si>
+  <si>
+    <t>Sportplatz</t>
+  </si>
+  <si>
+    <t>Sternenberg-Schlammfang</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>air temperature</t>
+  </si>
+  <si>
+    <t>external ID</t>
+  </si>
+  <si>
+    <t>sensor type</t>
+  </si>
+  <si>
+    <t>author affiliation</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Schafhof1</t>
+  </si>
+  <si>
+    <t>Schafhof5</t>
+  </si>
+  <si>
+    <t>electric conductivity</t>
+  </si>
+  <si>
+    <t>dS/m</t>
+  </si>
+  <si>
+    <t>ground water level</t>
+  </si>
+  <si>
+    <t>Sprengquellen oben süd</t>
+  </si>
+  <si>
+    <t>Sprengquellen oben nord</t>
+  </si>
+  <si>
+    <t>Sprengquellen unten nord</t>
+  </si>
+  <si>
+    <t>Sprengquellen unten süd</t>
+  </si>
+  <si>
+    <t>logger temperature</t>
+  </si>
+  <si>
+    <t>Büchelbach</t>
+  </si>
+  <si>
+    <t>Bühlot</t>
+  </si>
+  <si>
+    <t>Schwabenbrünnele</t>
+  </si>
+  <si>
+    <t>river water level 1</t>
+  </si>
+  <si>
+    <t>river water level 2</t>
+  </si>
+  <si>
+    <t>river water level 4</t>
+  </si>
+  <si>
+    <t>volumetric water content</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; %</t>
+    </r>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t>right value: 3441694.52
+high value: 5394526.54</t>
+  </si>
+  <si>
+    <t>right value: 3443216.35
+high value: 5389867.11</t>
+  </si>
+  <si>
+    <t>right value: 3440519.00
+high value: 5391980.00</t>
+  </si>
+  <si>
+    <t>right value: 3440092.989
+high value: 5390987.467</t>
+  </si>
+  <si>
+    <t>right value: 3442007.862
+high value: 5389779.80</t>
+  </si>
+  <si>
+    <t>right value: 3439038.89
+high value: 5394793.77</t>
+  </si>
+  <si>
+    <t>right value: 3438796.883
+high value: 5396211.97</t>
+  </si>
+  <si>
+    <t>right value: 3440998.49
+high value: 5397031.12</t>
+  </si>
+  <si>
+    <t>right value: 3440392.00
+high value: 5391938.00</t>
+  </si>
+  <si>
+    <t>20 cm below the top edge of the ground</t>
+  </si>
+  <si>
+    <t>50 cm below the top edge of the ground</t>
+  </si>
+  <si>
+    <t>right value: 3443428.00
+high value: 5392949.00</t>
+  </si>
+  <si>
+    <t>right value: 3440517.80
+high value: 5391975.60</t>
+  </si>
+  <si>
+    <t>right value: 3441528.00
+high value: 5391056.00</t>
+  </si>
+  <si>
+    <t>right value: 3441528.00
+high value: 5391046.00</t>
+  </si>
+  <si>
+    <t>right value: 3441426.00
+high value: 5391054.00</t>
+  </si>
+  <si>
+    <t>right value: 3441420.00
+high value: 5391040.00</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HOBO Pendant Event Data Logger - UA-003-64</t>
+  </si>
+  <si>
+    <t>Winterberg /
+Wintereck</t>
+  </si>
+  <si>
+    <t>Schwabenquelle /
+Schwabenbrünnele</t>
+  </si>
+  <si>
+    <t>Davis Tipping Bucket Rain Collector</t>
+  </si>
+  <si>
+    <t>Campbell CS650</t>
+  </si>
+  <si>
+    <t>TruTrack WT-HR 1500</t>
+  </si>
+  <si>
+    <t>OTT CTD</t>
+  </si>
+  <si>
+    <t>Karlsruher Institut für Technologie 
+(KIT)</t>
+  </si>
+  <si>
+    <t>PD Dr.-Ing. Uwe Ehret</t>
+  </si>
+  <si>
+    <t>A precipitation gauge has sensors for two variables, one for the precipitation and one for the air temperature. The gauges are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t>A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t>A level measurement has sensors for three variables, the water level, the water temperater and the water conductivity. The meters are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t>PD Dr.-Ing. Uwe Ehret
+uwe.ehret@kit.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electric conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,16 +341,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +378,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,64 +723,2220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BDE976-8A87-43CF-A983-F371A8BBADE6}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="40.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" customWidth="1"/>
+    <col min="10" max="10" width="60.08984375" customWidth="1"/>
+    <col min="14" max="14" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J76" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C15BD8F-A6AD-456F-99E1-85B7491DAE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3995A3C-C8F8-4DF1-A2EB-BA273F941D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{682A4A4C-CED8-4332-820B-8D70A758E6DF}"/>
   </bookViews>
@@ -219,10 +219,6 @@
     <t>OTT CTD</t>
   </si>
   <si>
-    <t>Karlsruher Institut für Technologie 
-(KIT)</t>
-  </si>
-  <si>
     <t>A precipitation gauge has sensors for two variables, one for the precipitation and one for the air temperature. The gauges are located in different areas to collect the data.</t>
   </si>
   <si>
@@ -458,6 +454,10 @@
   <si>
     <t xml:space="preserve">5390987.467
 </t>
+  </si>
+  <si>
+    <t>Karlsruher Institut of Technology 
+(KIT)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,12 +537,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,9 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BDE976-8A87-43CF-A983-F371A8BBADE6}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -898,25 +892,25 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -939,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>16</v>
@@ -948,32 +942,32 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="4" t="s">
-        <v>84</v>
+      <c r="P2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -981,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -990,32 +984,32 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="4" t="s">
-        <v>84</v>
+      <c r="P3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1023,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -1032,32 +1026,32 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="4" t="s">
-        <v>84</v>
+      <c r="P4" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1065,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1074,32 +1068,32 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="4" t="s">
-        <v>84</v>
+      <c r="P5" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1107,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1116,32 +1110,32 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="4" t="s">
-        <v>84</v>
+      <c r="P6" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1149,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1158,32 +1152,32 @@
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="4" t="s">
-        <v>84</v>
+      <c r="P7" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1191,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -1200,32 +1194,32 @@
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="4" t="s">
-        <v>84</v>
+      <c r="P8" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1233,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1242,32 +1236,32 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="4" t="s">
-        <v>84</v>
+      <c r="P9" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1275,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1284,32 +1278,32 @@
         <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="4" t="s">
-        <v>84</v>
+      <c r="P10" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1317,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1326,32 +1320,32 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="4" t="s">
-        <v>84</v>
+      <c r="P11" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1359,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -1368,32 +1362,32 @@
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="4" t="s">
-        <v>84</v>
+      <c r="P12" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1401,7 +1395,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1410,32 +1404,32 @@
         <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="4" t="s">
-        <v>84</v>
+      <c r="P13" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1443,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
@@ -1452,32 +1446,32 @@
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="4" t="s">
-        <v>84</v>
+      <c r="P14" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1485,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -1494,32 +1488,32 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="4" t="s">
-        <v>84</v>
+      <c r="P15" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1527,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -1536,32 +1530,32 @@
         <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="4" t="s">
-        <v>84</v>
+      <c r="P16" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1569,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1578,32 +1572,32 @@
         <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="4" t="s">
-        <v>84</v>
+      <c r="P17" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1611,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
@@ -1620,32 +1614,32 @@
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="4" t="s">
-        <v>84</v>
+      <c r="P18" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -1653,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -1662,32 +1656,32 @@
         <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="4" t="s">
-        <v>84</v>
+      <c r="P19" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1695,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
@@ -1704,10 +1698,10 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>36</v>
@@ -1716,22 +1710,22 @@
         <v>42</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="4" t="s">
-        <v>84</v>
+      <c r="P20" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1739,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -1748,10 +1742,10 @@
         <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>36</v>
@@ -1760,22 +1754,22 @@
         <v>42</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="4" t="s">
-        <v>84</v>
+      <c r="P21" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1783,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -1792,10 +1786,10 @@
         <v>23</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>37</v>
@@ -1804,22 +1798,22 @@
         <v>42</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="4" t="s">
-        <v>84</v>
+      <c r="P22" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1827,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -1836,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>37</v>
@@ -1848,22 +1842,22 @@
         <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="4" t="s">
-        <v>84</v>
+      <c r="P23" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1871,7 +1865,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
@@ -1880,10 +1874,10 @@
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>36</v>
@@ -1892,22 +1886,22 @@
         <v>42</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="4" t="s">
-        <v>84</v>
+      <c r="P24" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1915,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>33</v>
@@ -1924,10 +1918,10 @@
         <v>34</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -1936,22 +1930,22 @@
         <v>42</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="4" t="s">
-        <v>84</v>
+      <c r="P25" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -1959,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1968,10 +1962,10 @@
         <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>37</v>
@@ -1980,22 +1974,22 @@
         <v>42</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="4" t="s">
-        <v>84</v>
+      <c r="P26" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="58" x14ac:dyDescent="0.35">
@@ -2003,7 +1997,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>33</v>
@@ -2012,10 +2006,10 @@
         <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>37</v>
@@ -2024,22 +2018,22 @@
         <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="4" t="s">
-        <v>84</v>
+      <c r="P27" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2047,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>24</v>
@@ -2056,32 +2050,32 @@
         <v>17</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="4" t="s">
-        <v>84</v>
+      <c r="P28" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2089,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
@@ -2098,32 +2092,32 @@
         <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="4" t="s">
-        <v>84</v>
+      <c r="P29" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2131,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -2140,32 +2134,32 @@
         <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="4" t="s">
-        <v>84</v>
+      <c r="P30" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2173,7 +2167,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>24</v>
@@ -2182,32 +2176,32 @@
         <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="4" t="s">
-        <v>84</v>
+      <c r="P31" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2215,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -2224,32 +2218,32 @@
         <v>19</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="4" t="s">
-        <v>84</v>
+      <c r="P32" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2257,7 +2251,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>35</v>
@@ -2266,32 +2260,32 @@
         <v>19</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="4" t="s">
-        <v>84</v>
+      <c r="P33" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2299,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
@@ -2308,32 +2302,32 @@
         <v>17</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="4" t="s">
-        <v>84</v>
+      <c r="P34" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2341,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
@@ -2350,32 +2344,32 @@
         <v>19</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="4" t="s">
-        <v>84</v>
+      <c r="P35" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2383,7 +2377,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
@@ -2392,32 +2386,32 @@
         <v>19</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="4" t="s">
-        <v>84</v>
+      <c r="P36" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2425,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>24</v>
@@ -2434,32 +2428,32 @@
         <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="4" t="s">
-        <v>84</v>
+      <c r="P37" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2467,7 +2461,7 @@
         <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>29</v>
@@ -2476,32 +2470,32 @@
         <v>19</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="4" t="s">
-        <v>84</v>
+      <c r="P38" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2509,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>35</v>
@@ -2518,32 +2512,32 @@
         <v>19</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="4" t="s">
-        <v>84</v>
+      <c r="P39" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2551,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>24</v>
@@ -2560,32 +2554,32 @@
         <v>17</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="4" t="s">
-        <v>84</v>
+      <c r="P40" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2593,7 +2587,7 @@
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>29</v>
@@ -2602,32 +2596,32 @@
         <v>19</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="4" t="s">
-        <v>84</v>
+      <c r="P41" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2635,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>35</v>
@@ -2644,32 +2638,32 @@
         <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="4" t="s">
-        <v>84</v>
+      <c r="P42" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2677,36 +2671,36 @@
         <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2714,7 +2708,7 @@
         <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>35</v>
@@ -2727,23 +2721,23 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2751,36 +2745,36 @@
         <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2789,33 +2783,33 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2834,23 +2828,23 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2859,33 +2853,33 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2893,42 +2887,42 @@
         <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2936,7 +2930,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>35</v>
@@ -2945,33 +2939,33 @@
         <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -2979,42 +2973,42 @@
         <v>32</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">

--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3995A3C-C8F8-4DF1-A2EB-BA273F941D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5ED41-89CF-40EC-9E33-CF1A8A8D7515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{682A4A4C-CED8-4332-820B-8D70A758E6DF}"/>
   </bookViews>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t>Karlsruher Institut of Technology 
+    <t>Karlsruhe Institut of Technology 
 (KIT)</t>
   </si>
 </sst>
@@ -856,8 +856,8 @@
   <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -1,490 +1,493 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5ED41-89CF-40EC-9E33-CF1A8A8D7515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{682A4A4C-CED8-4332-820B-8D70A758E6DF}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="119">
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>abstract</t>
-  </si>
-  <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>Butschenberg</t>
-  </si>
-  <si>
-    <t>Grundigklinik</t>
-  </si>
-  <si>
-    <t>Hundseck</t>
-  </si>
-  <si>
-    <t>Schafhof</t>
-  </si>
-  <si>
-    <t>Schönbrunn</t>
-  </si>
-  <si>
-    <t>Sportplatz</t>
-  </si>
-  <si>
-    <t>Sternenberg-Schlammfang</t>
-  </si>
-  <si>
-    <t>precipitation</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>air temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>Schafhof1</t>
-  </si>
-  <si>
-    <t>Schafhof5</t>
-  </si>
-  <si>
-    <t>electric conductivity</t>
-  </si>
-  <si>
-    <t>dS/m</t>
-  </si>
-  <si>
-    <t>ground water level</t>
-  </si>
-  <si>
-    <t>Sprengquellen oben süd</t>
-  </si>
-  <si>
-    <t>Sprengquellen oben nord</t>
-  </si>
-  <si>
-    <t>Sprengquellen unten nord</t>
-  </si>
-  <si>
-    <t>Sprengquellen unten süd</t>
-  </si>
-  <si>
-    <t>logger temperature</t>
-  </si>
-  <si>
-    <t>Büchelbach</t>
-  </si>
-  <si>
-    <t>Bühlot</t>
-  </si>
-  <si>
-    <t>Schwabenbrünnele</t>
-  </si>
-  <si>
-    <t>volumetric water content</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="120">
+  <si>
+    <t xml:space="preserve">station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_right_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location_high_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author_first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author_last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author_affiliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butschenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.14.04_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precipitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3441694.52
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5394526.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Tipping Bucket Rain Collector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlsruhe Institute of Technology (KIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A precipitation gauge has sensors for two variables, one for the precipitation and one for the air temperature. The gauges are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uwe.ehret@kit.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOBO Pendant Event Data Logger - UA-003-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundigklinik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.14.02_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3443428.00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5392949.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hundseck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.00_00_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3443216.35
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5389867.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schafhof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.13.01_01_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440519.00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5391980.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schönbrunn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.00.00_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440092.989
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5390987.467
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwabenquelle / Schwabenbrünnele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.03.01_01_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3442007.862
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5389779.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportplatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.15.01_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3439038.89
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5394793.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sternenberg-Schlammfang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.18.00_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3438796.883
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5396211.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3438796.883
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winterberg / Wintereck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.16.01_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440998.49
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5397031.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schafhof1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.13.01_01.01_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bulk electric conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dS/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440392.00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5391938.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 cm below the top edge of the ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbell CS650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electric conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">volumetric water content</t>
   </si>
   <si>
     <r>
-      <t>m</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
       </rPr>
-      <t>/m</t>
+      <t xml:space="preserve">/m</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
       </rPr>
-      <t>3</t>
+      <t xml:space="preserve">3</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> ; %</t>
     </r>
   </si>
   <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t>20 cm below the top edge of the ground</t>
-  </si>
-  <si>
-    <t>50 cm below the top edge of the ground</t>
-  </si>
-  <si>
-    <t>HOBO Pendant Event Data Logger - UA-003-64</t>
-  </si>
-  <si>
-    <t>Winterberg /
-Wintereck</t>
-  </si>
-  <si>
-    <t>Schwabenquelle /
-Schwabenbrünnele</t>
-  </si>
-  <si>
-    <t>Davis Tipping Bucket Rain Collector</t>
-  </si>
-  <si>
-    <t>Campbell CS650</t>
-  </si>
-  <si>
-    <t>TruTrack WT-HR 1500</t>
-  </si>
-  <si>
-    <t>OTT CTD</t>
-  </si>
-  <si>
-    <t>A precipitation gauge has sensors for two variables, one for the precipitation and one for the air temperature. The gauges are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t>A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t>A level measurement has sensors for three variables, the water level, the water temperater and the water conductivity. The meters are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electric conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
-  </si>
-  <si>
-    <t>28.14.04_00_01</t>
-  </si>
-  <si>
-    <t>28.14.02_00_01</t>
-  </si>
-  <si>
-    <t>28.12.00_00_02</t>
-  </si>
-  <si>
-    <t>28.13.01_01_01</t>
-  </si>
-  <si>
-    <t>28.00.00_00_01</t>
-  </si>
-  <si>
-    <t>28.11.03.01_01_02</t>
-  </si>
-  <si>
-    <t>28.15.01_00_01</t>
-  </si>
-  <si>
-    <t>28.18.00_00_01</t>
-  </si>
-  <si>
-    <t>28.16.01_00_01</t>
-  </si>
-  <si>
-    <t>28.13.01_01.01_01</t>
-  </si>
-  <si>
-    <t>28.13.01_01.01_02</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_01</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_02</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_04</t>
-  </si>
-  <si>
-    <t>28.11.04_01_01</t>
-  </si>
-  <si>
-    <t>28.11.04_01_02</t>
-  </si>
-  <si>
-    <t>28.11.04_01_03</t>
-  </si>
-  <si>
-    <t>28.11.04_01_04</t>
-  </si>
-  <si>
-    <t>28.14.04_00_02</t>
-  </si>
-  <si>
-    <t>28.11.03.01_00_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">river water level </t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>water conductivity</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>Level ID: 303452</t>
-  </si>
-  <si>
-    <t>Level ID: 351535</t>
-  </si>
-  <si>
-    <t>Level ID: 303451</t>
-  </si>
-  <si>
-    <t>external_ID</t>
-  </si>
-  <si>
-    <t>sensor_type</t>
-  </si>
-  <si>
-    <t>author_first_name</t>
-  </si>
-  <si>
-    <t>author_last_name</t>
-  </si>
-  <si>
-    <t>author_affiliation</t>
-  </si>
-  <si>
-    <t>Uwe</t>
-  </si>
-  <si>
-    <t>Ehret</t>
-  </si>
-  <si>
-    <t>uwe.ehret@kit.edu</t>
-  </si>
-  <si>
-    <t>location_high_value</t>
-  </si>
-  <si>
-    <t>location_right_value</t>
-  </si>
-  <si>
-    <t>5394526.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3441694.52
-</t>
-  </si>
-  <si>
-    <t>5392949.00</t>
-  </si>
-  <si>
-    <t>5389867.11</t>
-  </si>
-  <si>
-    <t>5391980.00</t>
-  </si>
-  <si>
-    <t>5389779.80</t>
-  </si>
-  <si>
-    <t>5394793.77</t>
-  </si>
-  <si>
-    <t>5396211.97</t>
-  </si>
-  <si>
-    <t>5397031.12</t>
-  </si>
-  <si>
-    <t>5391938.00</t>
-  </si>
-  <si>
-    <t>5391975.60</t>
-  </si>
-  <si>
-    <t>5391056.00</t>
-  </si>
-  <si>
-    <t>5391046.00</t>
-  </si>
-  <si>
-    <t>5391054.00</t>
-  </si>
-  <si>
-    <t>5391040.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3443428.00
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3443216.35
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440519.00
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440092.989
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3442007.862
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3439038.89
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438796.883
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3438796.883
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440998.49
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440392.00
-</t>
+    <t xml:space="preserve">28.13.01_01.01_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 cm below the top edge of the ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schafhof5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.13.01_01.05_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.13.01_01.05_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.13.01_01.05_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground water level</t>
   </si>
   <si>
     <t xml:space="preserve">3440517.80
 </t>
   </si>
   <si>
+    <t xml:space="preserve">5391975.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TruTrack WT-HR 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logger temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">3440517.80
  </t>
   </si>
   <si>
+    <t xml:space="preserve">Sprengquellen oben nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.04_01_01</t>
+  </si>
+  <si>
     <t xml:space="preserve">3441528.00
 </t>
   </si>
   <si>
+    <t xml:space="preserve">5391056.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprengquellen oben süd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.04_01_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5391046.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprengquellen unten nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.04_01_03</t>
+  </si>
+  <si>
     <t xml:space="preserve">3441426.00
 </t>
   </si>
   <si>
+    <t xml:space="preserve">5391054.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprengquellen unten süd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.04_01_04</t>
+  </si>
+  <si>
     <t xml:space="preserve">3441420.00
 </t>
   </si>
   <si>
+    <t xml:space="preserve">5391040.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Büchelbach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.14.04_00_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">river water level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A level measurement has sensors for three variables, the water level, the water temperater and the water conductivity. The meters are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level ID: 351535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water conductivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mS/cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bühlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level ID: 303451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwabenbrünnele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.03.01_00_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTT CTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level ID: 303452</t>
+  </si>
+  <si>
     <t xml:space="preserve">3442007.862
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5390987.467
-</t>
-  </si>
-  <si>
-    <t>Karlsruhe Institut of Technology 
-(KIT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -496,2522 +499,2306 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFA6A6A6"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BDE976-8A87-43CF-A983-F371A8BBADE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="40.453125" customWidth="1"/>
-    <col min="9" max="10" width="20.453125" customWidth="1"/>
-    <col min="11" max="11" width="30.81640625" customWidth="1"/>
-    <col min="12" max="12" width="60.08984375" customWidth="1"/>
-    <col min="13" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="16.36328125" customWidth="1"/>
-    <col min="16" max="16" width="20.90625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="60.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="M51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3029,7 +2816,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3047,7 +2834,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3065,7 +2852,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3083,7 +2870,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3101,7 +2888,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3119,7 +2906,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3137,7 +2924,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3155,7 +2942,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3173,7 +2960,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3191,7 +2978,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3209,7 +2996,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3227,7 +3014,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3245,7 +3032,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3263,7 +3050,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3281,7 +3068,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3299,7 +3086,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3317,7 +3104,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3335,7 +3122,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3353,7 +3140,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3371,7 +3158,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3389,7 +3176,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3407,7 +3194,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3425,7 +3212,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3444,8 +3231,12 @@
       <c r="P75" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="119">
   <si>
     <t xml:space="preserve">station</t>
   </si>
@@ -231,7 +231,7 @@
     <t xml:space="preserve">28.13.01_01.01_01</t>
   </si>
   <si>
-    <t xml:space="preserve">bulk electric conductivity</t>
+    <t xml:space="preserve">bulk electrical conductivity</t>
   </si>
   <si>
     <t xml:space="preserve">dS/m</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Campbell CS650</t>
   </si>
   <si>
-    <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electric conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
+    <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electrical conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
   </si>
   <si>
     <t xml:space="preserve">volumetric water content</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">28.13.01_01.01_02</t>
   </si>
   <si>
-    <t xml:space="preserve">electric conductivity</t>
+    <t xml:space="preserve">electrical conductivity</t>
   </si>
   <si>
     <t xml:space="preserve">50 cm below the top edge of the ground</t>
@@ -411,19 +411,16 @@
     <t xml:space="preserve">28.14.04_00_02</t>
   </si>
   <si>
-    <t xml:space="preserve">river water level </t>
+    <t xml:space="preserve">river water level</t>
   </si>
   <si>
     <t xml:space="preserve">cm</t>
   </si>
   <si>
-    <t xml:space="preserve">A level measurement has sensors for three variables, the water level, the water temperater and the water conductivity. The meters are located in different areas to collect the data.</t>
+    <t xml:space="preserve">A level measurement has sensors for three variables, the water level, the water temperater and the electrical (water) conductivity. The meters are located in different areas to collect the data.</t>
   </si>
   <si>
     <t xml:space="preserve">Level ID: 351535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water conductivity</t>
   </si>
   <si>
     <t xml:space="preserve">mS/cm</t>
@@ -641,10 +638,10 @@
   </sheetPr>
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1471,7 +1468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -1515,7 +1512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -1691,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1735,7 +1732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>105</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -2535,10 +2532,10 @@
         <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2564,9 +2561,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
@@ -2593,15 +2590,15 @@
       </c>
       <c r="M46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -2628,22 +2625,22 @@
       </c>
       <c r="M47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2663,18 +2660,18 @@
       </c>
       <c r="M48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>107</v>
@@ -2690,7 +2687,7 @@
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>23</v>
@@ -2706,18 +2703,18 @@
       </c>
       <c r="M49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>88</v>
@@ -2733,7 +2730,7 @@
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>23</v>
@@ -2749,34 +2746,34 @@
       </c>
       <c r="M50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="40.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>23</v>
@@ -2792,7 +2789,7 @@
       </c>
       <c r="M51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>27</v>

--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73834A4-AB1F-47F7-AD6A-CED788F936AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6898B68-DF87-4D27-AD32-5954237A76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="149">
   <si>
     <t>station</t>
   </si>
@@ -255,14 +255,114 @@
     <t>volumetric water content</t>
   </si>
   <si>
+    <t>28.13.01_01.01_02</t>
+  </si>
+  <si>
+    <t>50 cm below the top edge of the ground</t>
+  </si>
+  <si>
+    <t>Schafhof5</t>
+  </si>
+  <si>
+    <t>28.13.01_01.05_01</t>
+  </si>
+  <si>
+    <t>28.13.01_01.05_02</t>
+  </si>
+  <si>
+    <t>28.13.01_01.05_04</t>
+  </si>
+  <si>
+    <t>ground water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440517.80
+</t>
+  </si>
+  <si>
+    <t>5391975.60</t>
+  </si>
+  <si>
+    <t>TruTrack WT-HR 1500</t>
+  </si>
+  <si>
+    <t>A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
+  </si>
+  <si>
+    <t>logger temperature</t>
+  </si>
+  <si>
+    <t>water temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3440517.80
+ </t>
+  </si>
+  <si>
+    <t>Sprengquellen oben nord</t>
+  </si>
+  <si>
+    <t>28.11.04_01_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3441528.00
+</t>
+  </si>
+  <si>
+    <t>5391056.00</t>
+  </si>
+  <si>
+    <t>Sprengquellen oben süd</t>
+  </si>
+  <si>
+    <t>28.11.04_01_02</t>
+  </si>
+  <si>
+    <t>5391046.00</t>
+  </si>
+  <si>
+    <t>Sprengquellen unten nord</t>
+  </si>
+  <si>
+    <t>28.11.04_01_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3441426.00
+</t>
+  </si>
+  <si>
+    <t>5391054.00</t>
+  </si>
+  <si>
+    <t>Sprengquellen unten süd</t>
+  </si>
+  <si>
+    <t>28.11.04_01_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3441420.00
+</t>
+  </si>
+  <si>
+    <t>5391040.00</t>
+  </si>
+  <si>
+    <t>Winterberg</t>
+  </si>
+  <si>
+    <t>time_step</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Schwabenquelle</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -297,169 +397,132 @@
       </rPr>
       <t>3</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ; %</t>
-    </r>
-  </si>
-  <si>
-    <t>28.13.01_01.01_02</t>
-  </si>
-  <si>
-    <t>electrical conductivity</t>
-  </si>
-  <si>
-    <t>50 cm below the top edge of the ground</t>
-  </si>
-  <si>
-    <t>Schafhof5</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_01</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_02</t>
-  </si>
-  <si>
-    <t>28.13.01_01.05_04</t>
-  </si>
-  <si>
-    <t>ground water level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440517.80
-</t>
-  </si>
-  <si>
-    <t>5391975.60</t>
-  </si>
-  <si>
-    <t>TruTrack WT-HR 1500</t>
-  </si>
-  <si>
-    <t>A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t>logger temperature</t>
-  </si>
-  <si>
-    <t>water temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3440517.80
- </t>
-  </si>
-  <si>
-    <t>Sprengquellen oben nord</t>
-  </si>
-  <si>
-    <t>28.11.04_01_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3441528.00
-</t>
-  </si>
-  <si>
-    <t>5391056.00</t>
-  </si>
-  <si>
-    <t>Sprengquellen oben süd</t>
-  </si>
-  <si>
-    <t>28.11.04_01_02</t>
-  </si>
-  <si>
-    <t>5391046.00</t>
-  </si>
-  <si>
-    <t>Sprengquellen unten nord</t>
-  </si>
-  <si>
-    <t>28.11.04_01_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3441426.00
-</t>
-  </si>
-  <si>
-    <t>5391054.00</t>
-  </si>
-  <si>
-    <t>Sprengquellen unten süd</t>
-  </si>
-  <si>
-    <t>28.11.04_01_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3441420.00
-</t>
-  </si>
-  <si>
-    <t>5391040.00</t>
-  </si>
-  <si>
-    <t>Büchelbach</t>
-  </si>
-  <si>
-    <t>28.14.04_00_02</t>
-  </si>
-  <si>
-    <t>river water level</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>A level measurement has sensors for three variables, the water level, the water temperater and the electrical (water) conductivity. The meters are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t>Level ID: 351535</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>Bühlot</t>
-  </si>
-  <si>
-    <t>Level ID: 303451</t>
-  </si>
-  <si>
-    <t>Schwabenbrünnele</t>
-  </si>
-  <si>
-    <t>28.11.03.01_00_01</t>
-  </si>
-  <si>
-    <t>OTT CTD</t>
-  </si>
-  <si>
-    <t>Level ID: 303452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3442007.862
- </t>
-  </si>
-  <si>
-    <t>Winterberg</t>
-  </si>
-  <si>
-    <t>time_step</t>
-  </si>
-  <si>
-    <t>5 min</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
-    <t>Schwabenquelle</t>
+  </si>
+  <si>
+    <t>data_path</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Butschenberg_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Butschenberg_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Grundigklinik_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Grundigklinik_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Hundseck_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Hundseck_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Schafhof_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Schafhof_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Schönbrunn_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Schönbrunn_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Schwabenquelle_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Schwabenquelle_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Sportplatz_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Sportplatz_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Sternenberg-Schlammfang_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Sternenberg-Schlammfang_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/precipitation/Winterberg_precipitation</t>
+  </si>
+  <si>
+    <t>data/data_export/air_temperature/Winterberg_air_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/bulk_electrical_conductivity/Schafhof1_bulk_electrical_conductivity_20cm</t>
+  </si>
+  <si>
+    <t>data/data_export/volumetric_water_content/Schafhof1_volumetric_water_content_20cm</t>
+  </si>
+  <si>
+    <t>data/data_export/bulk_electrical_conductivity/Schafhof1_bulk_electrical_conductivity_50cm</t>
+  </si>
+  <si>
+    <t>data/data_export/volumetric_water_content/Schafhof1_volumetric_water_content_50cm</t>
+  </si>
+  <si>
+    <t>data/data_export/bulk_electrical_conductivity/Schafhof5_bulk_electrical_conductivity_20cm</t>
+  </si>
+  <si>
+    <t>data/data_export/volumetric_water_content/Schafhof5_volumetric_water_content_20cm</t>
+  </si>
+  <si>
+    <t>data/data_export/bulk_electrical_conductivity/Schafhof5_bulk_electrical_conductivity_50cm</t>
+  </si>
+  <si>
+    <t>data/data_export/volumetric_water_content/Schafhof5_volumetric_water_content_50cm</t>
+  </si>
+  <si>
+    <t>data/data_export/ground_water_level/Schafhof_ground_water_level</t>
+  </si>
+  <si>
+    <t>data/data_export/logger_temperature/Schafhof_logger_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/water_temperature/Schafhof_water_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/ground_water_level/Sprengquellen_oben_nord_ground_water_level</t>
+  </si>
+  <si>
+    <t>data/data_export/ground_water_level/Sprengquellen_oben_süd_ground_water_level</t>
+  </si>
+  <si>
+    <t>data/data_export/ground_water_level/Sprengquellen_unten_nord_ground_water_level</t>
+  </si>
+  <si>
+    <t>data/data_export/ground_water_level/Sprengquellen_unten_süd_ground_water_level</t>
+  </si>
+  <si>
+    <t>data/data_export/logger_temperature/Sprengquellen_oben_nord_logger_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/water_temperature/Sprengquellen_oben_nord_water_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/water_temperature/Sprengquellen_oben_süd_water_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/logger_temperature/Sprengquellen_oben_süd_logger_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/logger_temperature/Sprengquellen_unten_nord_logger_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/logger_temperature/Sprengquellen_unten_süd_logger_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/water_temperature/Sprengquellen_unten_nord_water_temperature</t>
+  </si>
+  <si>
+    <t>data/data_export/water_temperature/Sprengquellen_unten_süd_water_temperature</t>
   </si>
 </sst>
 </file>
@@ -530,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -540,6 +603,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,9 +1015,10 @@
     <col min="14" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="16.36328125" customWidth="1"/>
     <col min="17" max="17" width="20.90625" customWidth="1"/>
+    <col min="18" max="18" width="76" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1000,8 +1070,11 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -1045,8 +1118,11 @@
       <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R2" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -1090,8 +1166,11 @@
       <c r="Q3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R3" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1184,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>33</v>
@@ -1135,8 +1214,11 @@
       <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R4" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1232,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>33</v>
@@ -1180,8 +1262,11 @@
       <c r="Q5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1195,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>37</v>
@@ -1225,8 +1310,11 @@
       <c r="Q6" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R6" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1328,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -1270,8 +1358,11 @@
       <c r="Q7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R7" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1285,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -1315,8 +1406,11 @@
       <c r="Q8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R8" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1330,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>41</v>
@@ -1360,8 +1454,11 @@
       <c r="Q9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1375,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>45</v>
@@ -1405,8 +1502,11 @@
       <c r="Q10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R10" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1420,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>45</v>
@@ -1450,10 +1550,13 @@
       <c r="Q11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R11" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>47</v>
@@ -1465,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>48</v>
@@ -1495,10 +1598,13 @@
       <c r="Q12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R12" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
@@ -1510,7 +1616,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>48</v>
@@ -1540,8 +1646,11 @@
       <c r="Q13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R13" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1555,7 +1664,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>52</v>
@@ -1585,8 +1694,11 @@
       <c r="Q14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>52</v>
@@ -1630,8 +1742,11 @@
       <c r="Q15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R15" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1645,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>56</v>
@@ -1675,8 +1790,11 @@
       <c r="Q16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R16" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1690,7 +1808,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>58</v>
@@ -1720,10 +1838,13 @@
       <c r="Q17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R17" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>59</v>
@@ -1735,7 +1856,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>60</v>
@@ -1765,10 +1886,13 @@
       <c r="Q18" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R18" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>59</v>
@@ -1780,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>60</v>
@@ -1810,8 +1934,11 @@
       <c r="Q19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1825,7 +1952,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>66</v>
@@ -1857,8 +1984,11 @@
       <c r="Q20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R20" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1869,10 +1999,10 @@
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>66</v>
@@ -1904,13 +2034,16 @@
       <c r="Q21" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>64</v>
@@ -1919,7 +2052,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>66</v>
@@ -1928,7 +2061,7 @@
         <v>67</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>69</v>
@@ -1951,22 +2084,25 @@
       <c r="Q22" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R22" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>66</v>
@@ -1975,7 +2111,7 @@
         <v>67</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>69</v>
@@ -1998,13 +2134,16 @@
       <c r="Q23" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R23" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
@@ -2013,7 +2152,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>41</v>
@@ -2045,22 +2184,25 @@
       <c r="Q24" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R24" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>41</v>
@@ -2092,13 +2234,16 @@
       <c r="Q25" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R25" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>64</v>
@@ -2107,7 +2252,7 @@
         <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>41</v>
@@ -2116,7 +2261,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>69</v>
@@ -2139,22 +2284,25 @@
       <c r="Q26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="R26" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>41</v>
@@ -2163,7 +2311,7 @@
         <v>42</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>69</v>
@@ -2186,32 +2334,35 @@
       <c r="Q27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R27" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>23</v>
@@ -2223,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2231,32 +2382,35 @@
       <c r="Q28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R28" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>23</v>
@@ -2268,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2276,32 +2430,35 @@
       <c r="Q29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R29" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>23</v>
@@ -2313,7 +2470,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2321,32 +2478,35 @@
       <c r="Q30" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R30" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>23</v>
@@ -2358,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2366,32 +2526,35 @@
       <c r="Q31" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R31" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>23</v>
@@ -2403,7 +2566,7 @@
         <v>25</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2411,32 +2574,35 @@
       <c r="Q32" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>23</v>
@@ -2448,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2456,32 +2622,35 @@
       <c r="Q33" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R33" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>23</v>
@@ -2493,7 +2662,7 @@
         <v>25</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2501,32 +2670,35 @@
       <c r="Q34" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R34" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>23</v>
@@ -2538,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2546,32 +2718,35 @@
       <c r="Q35" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R35" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>23</v>
@@ -2583,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2591,32 +2766,35 @@
       <c r="Q36" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R36" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>23</v>
@@ -2628,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2636,32 +2814,35 @@
       <c r="Q37" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R37" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>23</v>
@@ -2673,7 +2854,7 @@
         <v>25</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2681,32 +2862,35 @@
       <c r="Q38" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R38" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>23</v>
@@ -2718,7 +2902,7 @@
         <v>25</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2726,32 +2910,35 @@
       <c r="Q39" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R39" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>23</v>
@@ -2763,7 +2950,7 @@
         <v>25</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2771,32 +2958,35 @@
       <c r="Q40" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>23</v>
@@ -2808,7 +2998,7 @@
         <v>25</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2816,32 +3006,35 @@
       <c r="Q41" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="R41" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>23</v>
@@ -2853,7 +3046,7 @@
         <v>25</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2861,378 +3054,171 @@
       <c r="Q42" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="R42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
       <c r="N43" s="2"/>
-      <c r="P43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
       <c r="N44" s="2"/>
-      <c r="P44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
       <c r="N45" s="2"/>
-      <c r="P45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
       <c r="N46" s="2"/>
-      <c r="P46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
       <c r="N47" s="2"/>
-      <c r="P47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="2"/>
-      <c r="P48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
       <c r="N49" s="2"/>
-      <c r="P49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
       <c r="N50" s="2"/>
-      <c r="P50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
       <c r="N51" s="2"/>
-      <c r="P51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>

--- a/buehlot/metadata.xlsx
+++ b/buehlot/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\scripts\buehlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6898B68-DF87-4D27-AD32-5954237A76B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B5BA4D-4B56-4553-BB60-3F1241D73364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>uwe.ehret@kit.edu</t>
   </si>
   <si>
-    <t>air temperature</t>
-  </si>
-  <si>
     <t>°C</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>28.13.01_01.01_01</t>
   </si>
   <si>
-    <t>bulk electrical conductivity</t>
-  </si>
-  <si>
     <t>dS/m</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t xml:space="preserve">A soil moisture meter has sensors for two variables, one for the electrical conductivity and one for the volumetric water content. Each station has two different depths where the variables are being collected. </t>
   </si>
   <si>
-    <t>volumetric water content</t>
-  </si>
-  <si>
     <t>28.13.01_01.01_02</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
   </si>
   <si>
     <t>28.13.01_01.05_04</t>
-  </si>
-  <si>
-    <t>ground water level</t>
   </si>
   <si>
     <t xml:space="preserve">3440517.80
@@ -287,12 +275,6 @@
   </si>
   <si>
     <t>A tensiometer has sensors for three variables, the ground water level, the logger temperature and the water temperater. The meters are located in different areas to collect the data.</t>
-  </si>
-  <si>
-    <t>logger temperature</t>
-  </si>
-  <si>
-    <t>water temperature</t>
   </si>
   <si>
     <t xml:space="preserve">3440517.80
@@ -523,6 +505,24 @@
   </si>
   <si>
     <t>data/data_export/water_temperature/Sprengquellen_unten_süd_water_temperature</t>
+  </si>
+  <si>
+    <t>air_temperature</t>
+  </si>
+  <si>
+    <t>bulk_electrical_conductivity</t>
+  </si>
+  <si>
+    <t>volumetric_water_content</t>
+  </si>
+  <si>
+    <t>ground_water_level</t>
+  </si>
+  <si>
+    <t>logger_temperature</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
   </si>
 </sst>
 </file>
@@ -995,8 +995,8 @@
   <dimension ref="A1:R75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
@@ -1088,7 +1088,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>20</v>
@@ -1119,7 +1119,7 @@
         <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
@@ -1130,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -1167,15 +1167,15 @@
         <v>27</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1184,13 +1184,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -1215,34 +1215,34 @@
         <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
@@ -1263,15 +1263,15 @@
         <v>27</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1280,13 +1280,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
@@ -1311,34 +1311,34 @@
         <v>27</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>23</v>
@@ -1359,15 +1359,15 @@
         <v>27</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1376,13 +1376,13 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
@@ -1407,34 +1407,34 @@
         <v>27</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>23</v>
@@ -1455,15 +1455,15 @@
         <v>27</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1472,13 +1472,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
@@ -1503,34 +1503,34 @@
         <v>27</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>23</v>
@@ -1551,15 +1551,15 @@
         <v>27</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1568,13 +1568,13 @@
         <v>19</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -1599,34 +1599,34 @@
         <v>27</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>23</v>
@@ -1647,15 +1647,15 @@
         <v>27</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -1664,13 +1664,13 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -1695,34 +1695,34 @@
         <v>27</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>23</v>
@@ -1743,15 +1743,15 @@
         <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1760,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -1791,34 +1791,34 @@
         <v>27</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>23</v>
@@ -1839,15 +1839,15 @@
         <v>27</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1856,13 +1856,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -1887,34 +1887,34 @@
         <v>27</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>23</v>
@@ -1935,48 +1935,48 @@
         <v>27</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1985,48 +1985,48 @@
         <v>27</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2035,37 +2035,37 @@
         <v>27</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="J22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2085,37 +2085,37 @@
         <v>27</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="J23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2135,48 +2135,48 @@
         <v>27</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2185,48 +2185,48 @@
         <v>27</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2235,36 +2235,36 @@
         <v>27</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>23</v>
@@ -2276,7 +2276,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2285,36 +2285,36 @@
         <v>27</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>23</v>
@@ -2326,7 +2326,7 @@
         <v>25</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2335,34 +2335,34 @@
         <v>27</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>23</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2383,34 +2383,34 @@
         <v>27</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>23</v>
@@ -2422,7 +2422,7 @@
         <v>25</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2431,34 +2431,34 @@
         <v>27</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>23</v>
@@ -2470,7 +2470,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2479,34 +2479,34 @@
         <v>27</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>23</v>
@@ -2518,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2527,34 +2527,34 @@
         <v>27</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>23</v>
@@ -2566,7 +2566,7 @@
         <v>25</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2575,34 +2575,34 @@
         <v>27</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>23</v>
@@ -2614,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2623,34 +2623,34 @@
         <v>27</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>23</v>
@@ -2662,7 +2662,7 @@
         <v>25</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2671,34 +2671,34 @@
         <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>23</v>
@@ -2710,7 +2710,7 @@
         <v>25</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2719,34 +2719,34 @@
         <v>27</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>23</v>
@@ -2758,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2767,34 +2767,34 @@
         <v>27</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>23</v>
@@ -2806,7 +2806,7 @@
         <v>25</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2815,34 +2815,34 @@
         <v>27</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>23</v>
@@ -2854,7 +2854,7 @@
         <v>25</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2863,34 +2863,34 @@
         <v>27</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>23</v>
@@ -2902,7 +2902,7 @@
         <v>25</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2911,34 +2911,34 @@
         <v>27</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>23</v>
@@ -2950,7 +2950,7 @@
         <v>25</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2959,34 +2959,34 @@
         <v>27</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>23</v>
@@ -2998,7 +2998,7 @@
         <v>25</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3007,34 +3007,34 @@
         <v>27</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>23</v>
@@ -3046,7 +3046,7 @@
         <v>25</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3055,7 +3055,7 @@
         <v>27</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
